--- a/Luban/Config/Datas/__beans__.xlsx
+++ b/Luban/Config/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22331" windowHeight="8484"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -179,19 +179,79 @@
   </si>
   <si>
     <t>高度</t>
+  </si>
+  <si>
+    <t>equipment.EquipmentAttribute</t>
+  </si>
+  <si>
+    <t>attriId</t>
+  </si>
+  <si>
+    <t>装备属性值,0:生命值,1:MP,2:攻击力,3防御力</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>属性值</t>
+  </si>
+  <si>
+    <t>equipmentBase.Attribute</t>
+  </si>
+  <si>
+    <t>装备属性值,对应单位属性表</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>0:不是百分比,1:是百分比</t>
+  </si>
+  <si>
+    <t>enemySpine.AnimationName</t>
+  </si>
+  <si>
+    <t>动画名称</t>
+  </si>
+  <si>
+    <t>该Spine动画所有的动画名称</t>
+  </si>
+  <si>
+    <t>AnimName</t>
+  </si>
+  <si>
+    <t>动画播放名称</t>
+  </si>
+  <si>
+    <t>enemyConfig.SkillidList</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>怪物技能数组</t>
+  </si>
+  <si>
+    <t>改怪物数据的技能数组包含技能ID</t>
+  </si>
+  <si>
+    <t>SkillID</t>
+  </si>
+  <si>
+    <t>技能ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,55 +281,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,6 +338,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -353,6 +392,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,18 +432,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -403,19 +534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,115 +558,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,21 +611,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -605,6 +643,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,148 +716,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -812,67 +865,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1143,19 +1196,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="20.6296296296296" customWidth="1"/>
-    <col min="4" max="5" width="12.25" customWidth="1"/>
+    <col min="2" max="3" width="20.6666666666667" customWidth="1"/>
+    <col min="4" max="5" width="12.2166666666667" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="10.3796296296296" customWidth="1"/>
+    <col min="8" max="9" width="13.4416666666667" customWidth="1"/>
+    <col min="10" max="10" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1232,36 +1285,35 @@
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="8:11">
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
@@ -1349,88 +1401,182 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="K14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
+      <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
+      <c r="H15" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
+      <c r="K15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+    <row r="16" spans="8:11">
+      <c r="H16" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
+      <c r="K16" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11">
+      <c r="H22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11">
+      <c r="H23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/__beans__.xlsx
+++ b/Luban/Config/Datas/__beans__.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\TEngine-main\Luban\Config\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFF7A22-F3D4-4C1D-B487-6BB78D6CFEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>##var</t>
   </si>
@@ -239,19 +245,29 @@
   </si>
   <si>
     <t>技能ID</t>
+  </si>
+  <si>
+    <t>item.ItemTipsDes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具和装备的分段UI描述文本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectDes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果描述分段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +279,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -270,6 +287,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -277,141 +295,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,182 +326,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -613,170 +335,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,154 +346,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1190,28 +631,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="20.6666666666667" customWidth="1"/>
-    <col min="4" max="5" width="12.2166666666667" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="9" width="13.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="10.3333333333333" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,15 +674,15 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1284,7 +725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -1301,7 +742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="8:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>23</v>
       </c>
@@ -1312,7 +753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -1329,7 +770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="8:11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>29</v>
       </c>
@@ -1340,7 +781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="8:11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>32</v>
       </c>
@@ -1351,7 +792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="8:11">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>34</v>
       </c>
@@ -1362,7 +803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>37</v>
       </c>
@@ -1379,7 +820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="8:11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>39</v>
       </c>
@@ -1390,7 +831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="8:11">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>40</v>
       </c>
@@ -1401,12 +842,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>42</v>
       </c>
@@ -1429,7 +870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>48</v>
       </c>
@@ -1452,7 +893,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="8:11">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
         <v>53</v>
       </c>
@@ -1463,77 +904,74 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="8:11">
-      <c r="H19" s="3" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="8:11">
-      <c r="H22" s="3" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="8:11">
-      <c r="H23" s="3" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>64</v>
       </c>
@@ -1556,35 +994,58 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="2" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/__beans__.xlsx
+++ b/Luban/Config/Datas/__beans__.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\TEngine-main\Luban\Config\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFF7A22-F3D4-4C1D-B487-6BB78D6CFEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +13,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+被动技能专用属性</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
   <si>
     <t>##var</t>
   </si>
@@ -248,26 +274,34 @@
   </si>
   <si>
     <t>item.ItemTipsDes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>道具和装备的分段UI描述文本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EffectDes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>效果描述分段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassSkillBase.Attribute</t>
+  </si>
+  <si>
+    <t>技能属性值,对应单位属性表</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,7 +313,6 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -287,7 +320,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -295,19 +327,152 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,8 +491,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -335,15 +674,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -351,29 +926,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -631,28 +1248,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="5" width="12.21875" customWidth="1"/>
+    <col min="2" max="3" width="20.6666666666667" customWidth="1"/>
+    <col min="4" max="5" width="12.2222222222222" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,15 +1291,15 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +1319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -725,7 +1342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -742,7 +1359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="8:11">
       <c r="H5" t="s">
         <v>23</v>
       </c>
@@ -753,7 +1370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -770,7 +1387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:11">
       <c r="H7" t="s">
         <v>29</v>
       </c>
@@ -781,7 +1398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="8:11">
       <c r="H8" t="s">
         <v>32</v>
       </c>
@@ -792,7 +1409,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="8:11">
       <c r="H9" t="s">
         <v>34</v>
       </c>
@@ -803,7 +1420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10" t="s">
         <v>37</v>
       </c>
@@ -820,7 +1437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="8:11">
       <c r="H11" t="s">
         <v>39</v>
       </c>
@@ -831,7 +1448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:11">
       <c r="H12" t="s">
         <v>40</v>
       </c>
@@ -842,12 +1459,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" t="s">
         <v>42</v>
       </c>
@@ -870,7 +1487,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" t="s">
         <v>48</v>
       </c>
@@ -893,7 +1510,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="8:11">
       <c r="H16" t="s">
         <v>53</v>
       </c>
@@ -904,7 +1521,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" t="s">
         <v>55</v>
       </c>
@@ -921,7 +1538,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:11">
       <c r="H19" t="s">
         <v>58</v>
       </c>
@@ -932,7 +1549,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -949,7 +1566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:11">
       <c r="H22" t="s">
         <v>58</v>
       </c>
@@ -960,7 +1577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:11">
       <c r="H23" t="s">
         <v>62</v>
       </c>
@@ -971,7 +1588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" t="s">
         <v>64</v>
       </c>
@@ -994,58 +1611,98 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="2:11">
+      <c r="B30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="2:11">
+      <c r="B33" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F33" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I33" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="3" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11">
+      <c r="H37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11">
+      <c r="H38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/__beans__.xlsx
+++ b/Luban/Config/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t>##var</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>PassSkillBase.Attribute</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
   <si>
     <t>技能属性值,对应单位属性表</t>
@@ -301,7 +304,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,13 +322,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -792,52 +788,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,79 +842,79 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -932,7 +928,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1256,16 +1252,16 @@
   <sheetPr/>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="3" width="20.6666666666667" customWidth="1"/>
-    <col min="4" max="5" width="12.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="12.225" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="9" width="13.4444444444444" customWidth="1"/>
+    <col min="8" max="9" width="13.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1662,7 +1658,7 @@
         <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -1671,7 +1667,7 @@
         <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="8:11">
